--- a/시장분석용_정보/시장분석용_4167032000.xlsx
+++ b/시장분석용_정보/시장분석용_4167032000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>288684</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202112</v>
@@ -696,10 +600,10 @@
         <v>1168220307</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4167032000</v>
@@ -708,7 +612,7 @@
         <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>108501</v>
@@ -720,50 +624,50 @@
         <v>4200</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>54.29</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>15.24</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>30.48</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
         <v>100</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>30.48</v>
-      </c>
-      <c r="S2">
-        <v>30.48</v>
-      </c>
-      <c r="T2">
-        <v>31.43</v>
-      </c>
-      <c r="U2">
-        <v>7.62</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>100</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -773,64 +677,16 @@
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>54.29</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>15.24</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>30.48</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>100</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>301085</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202201</v>
@@ -842,10 +698,10 @@
         <v>1168220307</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4167032000</v>
@@ -854,7 +710,7 @@
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>4474810</v>
@@ -866,117 +722,69 @@
         <v>50044</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>11.44</v>
       </c>
-      <c r="S3">
-        <v>54.07</v>
-      </c>
       <c r="T3">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.2</v>
+        <v>47.3</v>
       </c>
       <c r="V3">
-        <v>32.41</v>
+        <v>31.65</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>8.17</v>
       </c>
       <c r="X3">
-        <v>29.8</v>
+        <v>1.25</v>
       </c>
       <c r="Y3">
-        <v>53.3</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>44.32</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>5.79</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>47.3</v>
       </c>
       <c r="AF3">
-        <v>0.2</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>11.44</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>47.3</v>
-      </c>
-      <c r="AL3">
-        <v>31.65</v>
-      </c>
-      <c r="AM3">
-        <v>8.17</v>
-      </c>
-      <c r="AN3">
         <v>1.25</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>1.34</v>
-      </c>
-      <c r="AS3">
-        <v>44.32</v>
-      </c>
-      <c r="AT3">
-        <v>5.79</v>
-      </c>
-      <c r="AU3">
-        <v>47.3</v>
-      </c>
-      <c r="AV3">
-        <v>1.25</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>313539</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202202</v>
@@ -988,10 +796,10 @@
         <v>1168220307</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4167032000</v>
@@ -1000,7 +808,7 @@
         <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>2108387</v>
@@ -1012,117 +820,69 @@
         <v>36927</v>
       </c>
       <c r="O4">
-        <v>77.89</v>
+        <v>1.97</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>23.51</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.08</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>57.19</v>
+      </c>
+      <c r="W4">
+        <v>3.25</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1.8</v>
+      </c>
+      <c r="AC4">
+        <v>20.7</v>
+      </c>
+      <c r="AD4">
         <v>22.11</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>13.93</v>
-      </c>
-      <c r="S4">
-        <v>1.97</v>
-      </c>
-      <c r="T4">
-        <v>2.83</v>
-      </c>
-      <c r="U4">
-        <v>3.4</v>
-      </c>
-      <c r="V4">
-        <v>55.76</v>
-      </c>
-      <c r="W4">
-        <v>22.11</v>
-      </c>
-      <c r="X4">
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
         <v>55.39</v>
       </c>
-      <c r="Y4">
-        <v>25.14</v>
-      </c>
-      <c r="Z4">
-        <v>19.47</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>1.97</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>23.51</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>14.08</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>57.19</v>
-      </c>
-      <c r="AM4">
-        <v>3.25</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>1.8</v>
-      </c>
-      <c r="AS4">
-        <v>20.7</v>
-      </c>
-      <c r="AT4">
-        <v>22.11</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>55.39</v>
-      </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>326030</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202203</v>
@@ -1134,10 +894,10 @@
         <v>1168220307</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4167032000</v>
@@ -1146,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>532013</v>
@@ -1158,40 +918,40 @@
         <v>8533</v>
       </c>
       <c r="O5">
-        <v>48.05</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>51.95</v>
+        <v>7.91</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>42.68</v>
       </c>
       <c r="R5">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>11.04</v>
+        <v>3.42</v>
       </c>
       <c r="T5">
-        <v>14.84</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>7.91</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>51.95</v>
+        <v>12.21</v>
       </c>
       <c r="X5">
-        <v>18.07</v>
+        <v>33.79</v>
       </c>
       <c r="Y5">
-        <v>65.92</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>16.02</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1200,75 +960,27 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>49.9</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>40.63</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="AF5">
-        <v>7.91</v>
-      </c>
-      <c r="AG5">
-        <v>42.68</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>3.42</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>12.21</v>
-      </c>
-      <c r="AN5">
-        <v>33.79</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>49.9</v>
-      </c>
-      <c r="AT5">
-        <v>40.63</v>
-      </c>
-      <c r="AU5">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="AV5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>338587</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202204</v>
@@ -1280,10 +992,10 @@
         <v>1168220307</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4167032000</v>
@@ -1292,7 +1004,7 @@
         <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>4672804</v>
@@ -1304,117 +1016,69 @@
         <v>53729</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>12.51</v>
+      </c>
+      <c r="T6">
+        <v>0.59</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>74.83</v>
+      </c>
+      <c r="W6">
+        <v>0.46</v>
+      </c>
+      <c r="X6">
         <v>11.15</v>
       </c>
-      <c r="S6">
-        <v>7.59</v>
-      </c>
-      <c r="T6">
-        <v>49.44</v>
-      </c>
-      <c r="U6">
-        <v>2.04</v>
-      </c>
-      <c r="V6">
-        <v>29.79</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>74.06999999999999</v>
-      </c>
       <c r="Y6">
-        <v>14.83</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>11.09</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>5.16</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>20.01</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0.46</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>12.51</v>
-      </c>
-      <c r="AJ6">
-        <v>0.59</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>74.83</v>
-      </c>
-      <c r="AM6">
-        <v>0.46</v>
-      </c>
-      <c r="AN6">
-        <v>11.15</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>5.16</v>
-      </c>
-      <c r="AS6">
-        <v>20.01</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0.93</v>
-      </c>
-      <c r="AV6">
         <v>73.90000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>351215</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202205</v>
@@ -1426,10 +1090,10 @@
         <v>1168220307</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4167032000</v>
@@ -1438,7 +1102,7 @@
         <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>1501624</v>
@@ -1450,105 +1114,57 @@
         <v>14605</v>
       </c>
       <c r="O7">
-        <v>92.64</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>7.36</v>
+        <v>0.34</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>20.85</v>
       </c>
       <c r="R7">
-        <v>4.35</v>
+        <v>2.64</v>
       </c>
       <c r="S7">
-        <v>36.6</v>
+        <v>2.09</v>
       </c>
       <c r="T7">
-        <v>9.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>10.78</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>31.77</v>
+        <v>25.68</v>
       </c>
       <c r="W7">
-        <v>7.36</v>
+        <v>8.01</v>
       </c>
       <c r="X7">
-        <v>26.74</v>
+        <v>40.4</v>
       </c>
       <c r="Y7">
-        <v>23.55</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>49.71</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>71.17</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0.34</v>
-      </c>
-      <c r="AG7">
-        <v>20.85</v>
-      </c>
-      <c r="AH7">
-        <v>2.64</v>
-      </c>
-      <c r="AI7">
-        <v>2.09</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>25.68</v>
-      </c>
-      <c r="AM7">
-        <v>8.01</v>
-      </c>
-      <c r="AN7">
-        <v>40.4</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>1.44</v>
-      </c>
-      <c r="AS7">
-        <v>71.17</v>
-      </c>
-      <c r="AT7">
-        <v>1.71</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
         <v>25.68</v>
       </c>
     </row>
